--- a/Bdjobs.com.xlsx
+++ b/Bdjobs.com.xlsx
@@ -1537,7 +1537,7 @@
       <c r="A15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1582,7 +1582,7 @@
       <c r="A16" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="6" t="s">
         <v>83</v>
       </c>
@@ -1625,7 +1625,7 @@
       <c r="A17" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="15" t="s">
         <v>88</v>
       </c>
@@ -1668,7 +1668,7 @@
       <c r="A18" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="6" t="s">
         <v>92</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="A19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="6" t="s">
         <v>96</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="A20" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="6" t="s">
         <v>101</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="A21" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="6" t="s">
         <v>106</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="A29" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>143</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -2188,7 +2188,7 @@
       <c r="A30" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="6" t="s">
         <v>148</v>
       </c>
@@ -2231,7 +2231,7 @@
       <c r="A31" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="6" t="s">
         <v>153</v>
       </c>
@@ -2274,7 +2274,7 @@
       <c r="A32" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="6" t="s">
         <v>157</v>
       </c>
@@ -2317,7 +2317,7 @@
       <c r="A33" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="6" t="s">
         <v>161</v>
       </c>
@@ -30313,10 +30313,12 @@
       <c r="AA997" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B15:B21"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G33">

--- a/Bdjobs.com.xlsx
+++ b/Bdjobs.com.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manual Testing Project\Bdjobs.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D5D708-97B2-48B8-A1B6-A967620AF652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF1765A-B9AE-4BD9-B206-F8267D14EA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Account" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -574,8 +574,15 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +605,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF4A86E8"/>
         <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -665,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -698,6 +717,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,11 +944,11 @@
   </sheetPr>
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1028,7 @@
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -1046,7 +1071,7 @@
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -1089,7 +1114,7 @@
       <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -1132,7 +1157,7 @@
       <c r="F5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -1175,7 +1200,7 @@
       <c r="F6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -1218,7 +1243,7 @@
       <c r="F7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -1261,7 +1286,7 @@
       <c r="F8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -1304,7 +1329,7 @@
       <c r="F9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -1349,7 +1374,7 @@
       <c r="F10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1392,7 +1417,7 @@
       <c r="F11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -1435,7 +1460,7 @@
       <c r="F12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -1478,7 +1503,7 @@
       <c r="F13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -1521,7 +1546,7 @@
       <c r="F14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -1566,7 +1591,7 @@
       <c r="F15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -1609,7 +1634,7 @@
       <c r="F16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -1652,7 +1677,7 @@
       <c r="F17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -1695,7 +1720,7 @@
       <c r="F18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -1738,7 +1763,7 @@
       <c r="F19" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -1781,7 +1806,7 @@
       <c r="F20" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -1824,7 +1849,7 @@
       <c r="F21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -1869,7 +1894,7 @@
       <c r="F22" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -1912,7 +1937,7 @@
       <c r="F23" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -1955,7 +1980,7 @@
       <c r="F24" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -1998,7 +2023,7 @@
       <c r="F25" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -2041,7 +2066,7 @@
       <c r="F26" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -2084,7 +2109,7 @@
       <c r="F27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -2127,7 +2152,7 @@
       <c r="F28" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -2172,7 +2197,7 @@
       <c r="F29" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -2215,7 +2240,7 @@
       <c r="F30" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -2258,7 +2283,7 @@
       <c r="F31" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -2301,7 +2326,7 @@
       <c r="F32" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -2344,7 +2369,7 @@
       <c r="F33" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="14" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -30353,7 +30378,7 @@
   </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
